--- a/4_SANCHEZ/SANCHEZ.xlsx
+++ b/4_SANCHEZ/SANCHEZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d18bcd00a3430d46/OFICINA/SUELDOS/2025/02/4_SANCHEZ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\4_SANCHEZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{1D5065A4-9A6D-4646-BC9E-8ECDB1611230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295E8C87-D7F8-4BC2-82F2-7E2BD57B7097}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8E0259-4D1A-4791-BA6C-7C0FF8049CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27075" yWindow="3450" windowWidth="20925" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>NO REM SAC</t>
   </si>
   <si>
-    <t>FEBRERO 2025</t>
+    <t>MARZO 2025</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,32 +594,32 @@
         <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>495914.49</v>
+        <v>524206.19</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="11">
         <f>+B7+C7</f>
-        <v>495914.49</v>
+        <v>524206.19</v>
       </c>
       <c r="E7" s="9">
-        <v>8889.0400000000009</v>
+        <v>16993.5</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="13">
         <f>+E7+F7</f>
-        <v>8889.0400000000009</v>
+        <v>16993.5</v>
       </c>
       <c r="H7" s="9">
         <f>+D7+G7</f>
-        <v>504803.52999999997</v>
+        <v>541199.68999999994</v>
       </c>
       <c r="I7" s="9">
         <f>+H7*2</f>
-        <v>1009607.0599999999</v>
+        <v>1082399.3799999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
